--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4021.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4021.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.738138616979779</v>
+        <v>5.44870138168335</v>
       </c>
       <c r="B1">
-        <v>2.519809822135179</v>
+        <v>5.373844146728516</v>
       </c>
       <c r="C1">
-        <v>3.014040717689763</v>
+        <v>8.447382926940918</v>
       </c>
       <c r="D1">
-        <v>3.321819619221426</v>
+        <v>8.41199779510498</v>
       </c>
       <c r="E1">
-        <v>2.215299206353744</v>
+        <v>3.61477518081665</v>
       </c>
     </row>
   </sheetData>
